--- a/Networks/Parte2/Excel/Parte2-Network19.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network19.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5874961541566665</v>
+        <v>-0.6207974326880873</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.101068281973236</v>
+        <v>-0.2936463303025039</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3856330826000572</v>
+        <v>-0.008752254176590913</v>
       </c>
       <c r="C3" t="n">
-        <v>1.130865472961214</v>
+        <v>0.9762913825547721</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.60118931841829</v>
+        <v>0.8681185898850409</v>
       </c>
       <c r="C4" t="n">
-        <v>1.219346754801534</v>
+        <v>0.06044466525304374</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.485571859053935</v>
+        <v>-1.754117842938022</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.279392524613358</v>
+        <v>-0.3558846413607962</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.294117845739492</v>
+        <v>0.7087473255926309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5833308733389568</v>
+        <v>0.1880960260198566</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.615493454188053</v>
+        <v>0.8867000596440289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2380955620490001</v>
+        <v>0.4744587374238869</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network19.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network19.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6207974326880873</v>
+        <v>-1.09870146349914</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2936463303025039</v>
+        <v>-1.235779787576659</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.008752254176590913</v>
+        <v>0.3601534632722481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9762913825547721</v>
+        <v>1.002496524797643</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8681185898850409</v>
+        <v>1.356026452174008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06044466525304374</v>
+        <v>1.134840374255493</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.754117842938022</v>
+        <v>-2.058848019196403</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3558846413607962</v>
+        <v>0.1421232957522238</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7087473255926309</v>
+        <v>1.056296514569596</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1880960260198566</v>
+        <v>-0.2285491298578409</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8867000596440289</v>
+        <v>1.462136895277899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4744587374238869</v>
+        <v>-0.1162323139353957</v>
       </c>
     </row>
   </sheetData>
